--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,12 +54,25 @@
   <si>
     <t>학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2314213213</t>
+  </si>
+  <si>
+    <t>32313</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>132321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,19 +439,19 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,177 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D175245-EB5F-4A29-B523-10E6CD7B9CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="34245" yWindow="4380" windowWidth="21600" windowHeight="11385" xr2:uid="{C8FF243D-4782-4B67-982C-3C47D032E510}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주민등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2314213213</t>
-  </si>
-  <si>
-    <t>32313</t>
-  </si>
-  <si>
-    <t>3232</t>
-  </si>
-  <si>
-    <t>132321</t>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주민등록번호</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fonts count="6">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -344,21 +325,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -418,46 +399,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCB3D17-088E-43C6-959D-4D3F82394E50}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:E2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D2">
+        <x:v>123456789</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</x:worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,158 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
-  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-  </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF5EF9B-073E-48DA-BEE1-DFB4EF4EFC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="6480" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주민등록번호</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>주민등록번호</t>
+  </si>
+  <si>
+    <t>염승욱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 강좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바,자바2,자바3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강된 강좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="6">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left>
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="0"/>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -399,47 +417,74 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>123456789</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="0">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0">
+        <v>123456789</v>
+      </c>
+      <c r="E2" s="0">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -19,27 +19,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
+    <x:t>학점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과</x:t>
+  </x:si>
+  <x:si>
     <x:t>학번</x:t>
   </x:si>
   <x:si>
-    <x:t>학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학점</x:t>
+    <x:t>염승욱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자바,자바2,자바3</x:t>
   </x:si>
   <x:si>
     <x:t>주민등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록 강좌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>3456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thdjs07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tmddnr1</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>3456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thdjs07</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>3456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thdjs07</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="0"/>
   <x:fonts count="6">
     <x:font>
       <x:name val="맑은 고딕"/>
@@ -101,8 +144,11 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -405,41 +451,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E2"/>
+  <x:dimension ref="A1:G2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+      <x:selection activeCell="G1" activeCellId="0" sqref="G1:G1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" t="s">
+    <x:row r="1" spans="1:7">
+      <x:c r="A1" t="s" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" t="s" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" t="s" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" t="s" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
+      <x:c r="F1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G1" t="s" s="0">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D2">
+      <x:c r="D2" s="0">
         <x:v>123456789</x:v>
+      </x:c>
+      <x:c r="E2" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" t="s" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G2" t="s" s="0">
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </x:worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,163 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B17BCD-0F6B-4364-B227-E8031F9D968B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>학번</t>
-  </si>
-  <si>
-    <t>학과</t>
-  </si>
-  <si>
-    <t>주민등록번호</t>
-  </si>
-  <si>
-    <t>염승욱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 강좌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바,자바2,자바3</t>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주민등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>20202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>2020/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020/1477</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="0"/>
+  <x:fonts count="6">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -404,62 +418,64 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>123456789</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:E3"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" t="s" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" t="s" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" t="s" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" t="s" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1" t="s" s="0">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D2" s="0">
+        <x:v>123456789</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" t="s" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" t="s" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" t="s" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" t="s" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E3" t="s" s="0">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</x:worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,177 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
-  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-  </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA8A89-A1B0-4EB8-9CF1-028AED6551D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5265" yWindow="2655" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주민등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>20202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>2020/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020/1477</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>주민등록번호</t>
+  </si>
+  <si>
+    <t>염승욱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 강좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바,자바2,자바3</t>
+  </si>
+  <si>
+    <t>등록 성적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="0"/>
-  <x:fonts count="6">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left>
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="0"/>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -418,64 +408,65 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E3"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" t="s" s="0">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B1" t="s" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" t="s" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" t="s" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E1" t="s" s="0">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>123456789</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3">
-      <x:c r="A3" t="s" s="0">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" t="s" s="0">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" t="s" s="0">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" t="s" s="0">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E3" t="s" s="0">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA8A89-A1B0-4EB8-9CF1-028AED6551D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A04975-AD9C-402F-B510-965B368E1585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="2655" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>이름</t>
   </si>
@@ -49,7 +49,23 @@
     <t>자바,자바2,자바3</t>
   </si>
   <si>
-    <t>등록 성적</t>
+    <t>수강된 강좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록성적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바/80, 컴네/100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -416,15 +432,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -446,8 +462,14 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123</v>
       </c>
@@ -462,6 +484,12 @@
       </c>
       <c r="F2" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>이름</t>
   </si>
@@ -67,12 +67,16 @@
   <si>
     <t>자바/80, 컴네/100</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바/80, 컴네/100,JSP/80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,16 +445,16 @@
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -470,26 +474,26 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>123456789</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>이름</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>자바/80, 컴네/100,JSP/80</t>
+  </si>
+  <si>
+    <t>자바/80, 컴네/100,JSP/80,컴구이/100</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A04975-AD9C-402F-B510-965B368E1585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD9322-E7B1-4E65-8E96-EA08BB596B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2655" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2505" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>이름</t>
   </si>
@@ -65,21 +65,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자바/80, 컴네/100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바/80, 컴네/100,JSP/80</t>
-  </si>
-  <si>
     <t>자바/80, 컴네/100,JSP/80,컴구이/100</t>
+  </si>
+  <si>
+    <t>컴소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,22 +438,22 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -477,26 +473,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
         <v>123456789</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD9322-E7B1-4E65-8E96-EA08BB596B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C11CFE-2732-4DD8-B9BD-D9701EAB0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2505" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3810" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>이름</t>
   </si>
@@ -65,10 +65,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자바/80, 컴네/100,JSP/80,컴구이/100</t>
-  </si>
-  <si>
     <t>컴소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일처리/4.0, 파일처리2/3.0</t>
+  </si>
+  <si>
+    <t>설효주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -435,15 +455,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -471,16 +491,19 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>123456789</v>
@@ -495,7 +518,36 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>123456789</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,163 +1,173 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B17BCD-0F6B-4364-B227-E8031F9D968B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>학번</t>
-  </si>
-  <si>
-    <t>학과</t>
-  </si>
-  <si>
-    <t>주민등록번호</t>
-  </si>
-  <si>
-    <t>염승욱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 강좌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바,자바2,자바3</t>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <x:si>
+    <x:t>자바,자바2,자바3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>염승욱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주민등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록 강좌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fonts count="6">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -404,62 +414,62 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>123456789</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:G2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G2" activeCellId="0" sqref="G2:G2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="A1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D2">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c r="E2">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</x:worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,173 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
-  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duatm\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-  </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C06123-13BA-4C71-B592-333EB3BB1753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <x:si>
-    <x:t>자바,자바2,자바3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>염승욱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주민등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록 강좌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>자바,자바2,자바3</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>염승욱</t>
+  </si>
+  <si>
+    <t>학점</t>
+  </si>
+  <si>
+    <t>주민등록번호</t>
+  </si>
+  <si>
+    <t>등록 강좌</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>S123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3456789</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="6">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left>
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="0"/>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -414,62 +415,68 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G2" activeCellId="0" sqref="G2:G2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.39999999999999857891"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:7">
-      <x:c r="A1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c r="E2">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0">
+        <v>123456789</v>
+      </c>
+      <c r="E2" s="0">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>자바,자바2,자바3</x:t>
   </x:si>
@@ -46,12 +46,19 @@
   </x:si>
   <x:si>
     <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>3456789</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="0"/>
   <x:fonts count="6">
     <x:font>
       <x:name val="맑은 고딕"/>
@@ -429,16 +436,16 @@
   <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:7">
-      <x:c r="A1" t="s">
+      <x:c r="A1" t="s" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B1" t="s">
+      <x:c r="B1" t="s" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" t="s">
+      <x:c r="C1" t="s" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D1" t="s">
+      <x:c r="D1" t="s" s="0">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
@@ -447,25 +454,28 @@
       <x:c r="F1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G1" t="s">
+      <x:c r="G1" t="s" s="0">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2">
+      <x:c r="A2" s="0">
         <x:v>123</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D2">
+      <x:c r="D2" s="0">
         <x:v>123456789</x:v>
       </x:c>
-      <x:c r="E2">
+      <x:c r="E2" s="0">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F2" t="s">
+      <x:c r="F2" t="s" s="0">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2" t="s" s="0">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,180 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
-  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-  </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35731AE6-DA19-41BE-8D15-51CC2E8813EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <x:si>
-    <x:t>자바,자바2,자바3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>염승욱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주민등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록 강좌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>3456789</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>자바,자바2,자바3</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>염승욱</t>
+  </si>
+  <si>
+    <t>학점</t>
+  </si>
+  <si>
+    <t>주민등록번호</t>
+  </si>
+  <si>
+    <t>등록 강좌</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>수강된 강좌</t>
+  </si>
+  <si>
+    <t>컴소</t>
+  </si>
+  <si>
+    <t>자바</t>
+  </si>
+  <si>
+    <t>수강료</t>
+  </si>
+  <si>
+    <t>등록성적</t>
+  </si>
+  <si>
+    <t>파일처리/4.0, 파일처리2/3.0</t>
+  </si>
+  <si>
+    <t>설효주</t>
+  </si>
+  <si>
+    <t>컴공</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="0"/>
-  <x:fonts count="6">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left>
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="0"/>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -421,65 +421,109 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G2" activeCellId="0" sqref="G2:G2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.39999999999999857891"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:7">
-      <x:c r="A1" t="s" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B1" t="s" s="0">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" t="s" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D1" t="s" s="0">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1" t="s" s="0">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c r="E2" s="0">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F2" t="s" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" t="s" s="0">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>123456789</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35731AE6-DA19-41BE-8D15-51CC2E8813EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E748AB-B0F3-46E4-88D9-7DCDE446A161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="2310" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>자바,자바2,자바3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>이름</t>
   </si>
@@ -52,32 +49,31 @@
     <t>수강된 강좌</t>
   </si>
   <si>
-    <t>컴소</t>
-  </si>
-  <si>
-    <t>자바</t>
-  </si>
-  <si>
     <t>수강료</t>
   </si>
   <si>
     <t>등록성적</t>
   </si>
   <si>
-    <t>파일처리/4.0, 파일처리2/3.0</t>
-  </si>
-  <si>
     <t>설효주</t>
   </si>
   <si>
-    <t>컴공</t>
+    <t>컴소과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴공과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3456789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -86,6 +82,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -112,11 +115,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,41 +438,41 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -474,24 +480,17 @@
         <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
         <v>123456789</v>
       </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -500,25 +499,13 @@
         <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D3">
         <v>123456789</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E748AB-B0F3-46E4-88D9-7DCDE446A161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A4326-C6E7-4541-BF5F-969040776C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2310" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31380" yWindow="2505" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>이름</t>
   </si>
@@ -53,26 +53,71 @@
   </si>
   <si>
     <t>등록성적</t>
-  </si>
-  <si>
-    <t>설효주</t>
   </si>
   <si>
     <t>컴소과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컴공과</t>
+    <t>3456789</t>
+  </si>
+  <si>
+    <t>김민식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3456789</t>
+    <t>최소언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바4</t>
+  </si>
+  <si>
+    <t>자바4,객체지향프로그래밍||</t>
+  </si>
+  <si>
+    <t>,자바4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바4/4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바4/4.0</t>
+  </si>
+  <si>
+    <t>자바4/3.0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>이름테스트</t>
+  </si>
+  <si>
+    <t>컴소과</t>
+  </si>
+  <si>
+    <t>0206081234567</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,25 +480,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -462,50 +507,141 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0">
+        <v>123456789</v>
+      </c>
+      <c r="E2" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0">
+        <v>50000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>12</v>
-      </c>
-      <c r="D2">
-        <v>123456789</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>456</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="0">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>123456789</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H3" s="0">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="0">
+        <v>123</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0">
+        <v>123456789</v>
+      </c>
+      <c r="E4" s="0">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H4" s="0">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="0">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0">
+        <v>123456789</v>
+      </c>
+      <c r="E5" s="0">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H5" s="0">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A4326-C6E7-4541-BF5F-969040776C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3DC4AE-212A-4BB6-A4DF-508C6F88ADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="2505" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="2280" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>이름</t>
   </si>
@@ -88,29 +88,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자바4/4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바4/4.0</t>
-  </si>
-  <si>
     <t>자바4/3.0</t>
   </si>
   <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>이름테스트</t>
+  </si>
+  <si>
+    <t>컴소과</t>
+  </si>
+  <si>
+    <t>0206081234567</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>이름테스트</t>
-  </si>
-  <si>
-    <t>컴소과</t>
-  </si>
-  <si>
-    <t>0206081234567</t>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>테스트이름</t>
+  </si>
+  <si>
+    <t>테스트학과</t>
   </si>
 </sst>
 </file>
@@ -480,13 +482,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
@@ -546,7 +551,7 @@
         <v>50000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>12</v>
@@ -630,18 +635,63 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s" s="0">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="0">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0">
+        <v>206081234567</v>
+      </c>
+      <c r="J7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D6" t="s" s="0">
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>27</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,186 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.893"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소언\Desktop\객체\UniversityInformationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E748AB-B0F3-46E4-88D9-7DCDE446A161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="5310" yWindow="2310" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>학번</t>
-  </si>
-  <si>
-    <t>학과</t>
-  </si>
-  <si>
-    <t>염승욱</t>
-  </si>
-  <si>
-    <t>학점</t>
-  </si>
-  <si>
-    <t>주민등록번호</t>
-  </si>
-  <si>
-    <t>등록 강좌</t>
-  </si>
-  <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
-    <t>수강된 강좌</t>
-  </si>
-  <si>
-    <t>수강료</t>
-  </si>
-  <si>
-    <t>등록성적</t>
-  </si>
-  <si>
-    <t>설효주</t>
-  </si>
-  <si>
-    <t>컴소과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴공과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3456789</t>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <x:si>
+    <x:t>수강료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴소과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>염승욱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴공과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설효주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록성적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록 강좌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주민등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강된 강좌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>3456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thdjs07</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="0"/>
+  <x:fonts count="6">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -427,90 +445,98 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>123456789</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>456</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>123456789</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:J4"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:10">
+      <x:c r="A1" t="s" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" t="s" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C1" t="s" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D1" t="s" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G1" t="s" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H1" t="s" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1" t="s" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J1" t="s" s="0">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="0">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="0">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c r="F2" s="2"/>
+      <x:c r="G2" s="2"/>
+      <x:c r="J2" t="s" s="0">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="B3" t="s" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D3" s="0">
+        <x:v>123456789</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="D4" s="0">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c r="J4" t="s" s="0">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</x:worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>이름</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>테스트학과</t>
+  </si>
+  <si>
+    <t>컴퓨터소프트웨어공학과</t>
   </si>
 </sst>
 </file>
@@ -529,8 +532,8 @@
       <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -539,22 +542,16 @@
         <v>123456789</v>
       </c>
       <c r="E2" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="H2" s="0">
         <v>50000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -562,7 +559,7 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -588,7 +585,7 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -610,34 +607,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
+      <c r="A5" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>2.0608E11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="0">
         <v>123</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0">
-        <v>123456789</v>
-      </c>
-      <c r="E5" s="0">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H5" s="0">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>22</v>
@@ -645,25 +630,25 @@
       <c r="C6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="0">
-        <v>123</v>
+      <c r="D6" s="0">
+        <v>206081234567</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>345.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D7" s="0">
-        <v>206081234567</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +667,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>345.0</v>
+        <v>456.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>27</v>
@@ -691,7 +676,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.0</v>
+        <v>2.06081234567E11</v>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>이름</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>0206081234567</t>
+  </si>
+  <si>
+    <t>1234567</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>이름</t>
   </si>
@@ -88,12 +88,22 @@
   </si>
   <si>
     <t>테스트학과</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3456789</t>
+  </si>
+  <si>
+    <t>a123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,20 +474,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -486,21 +496,21 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -509,24 +519,27 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>123456789</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>50000</v>
       </c>
+      <c r="J2" t="s" s="0">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -535,24 +548,24 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>123456789</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -561,92 +574,92 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>123456789</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>345</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>206080000000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>206081234567</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>345</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>345</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>206081234567</v>
       </c>
     </row>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>이름</t>
   </si>
